--- a/statistics/HistoricalDistanceData/historical_distance/Q20727461-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q20727461-en.xlsx
@@ -31,60 +31,60 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Lafayette Louisiana Theater Gunman Threatened His Family, Was Involuntarily Committed, Documents Say</t>
+  </si>
+  <si>
+    <t>Videos and 911 tapes offer chilling glimpse into Lafayette shooting</t>
+  </si>
+  <si>
+    <t>Louisiana theater shooter John Russell Houser was reclusive, angry, bizarre, neighbors say</t>
+  </si>
+  <si>
+    <t>Autopsy results released for shooter, victims in Lafayette theater shooting</t>
+  </si>
+  <si>
     <t>Two dead in cinema shooting as Obama says he was stymied on gun control</t>
   </si>
   <si>
+    <t>Pray for Lafayette shooting victims and their families, say Louisiana congressional members</t>
+  </si>
+  <si>
     <t>Last Lafayette theater shooting victim released from hospital</t>
   </si>
   <si>
+    <t>Lafayette Theater Shooter Fan of David Duke, Neo-Nazis, and Antigovernment Conspiracies</t>
+  </si>
+  <si>
     <t>Judge who detained Lafayette movie theater shooter John Houser says she couldn’t force him into mental hospital: ‘I did my job’</t>
   </si>
   <si>
-    <t>Louisiana theater shooter John Russell Houser was reclusive, angry, bizarre, neighbors say</t>
-  </si>
-  <si>
-    <t>Lafayette Louisiana Theater Gunman Threatened His Family, Was Involuntarily Committed, Documents Say</t>
-  </si>
-  <si>
-    <t>Videos and 911 tapes offer chilling glimpse into Lafayette shooting</t>
-  </si>
-  <si>
-    <t>Lafayette Theater Shooter Fan of David Duke, Neo-Nazis, and Antigovernment Conspiracies</t>
-  </si>
-  <si>
-    <t>Autopsy results released for shooter, victims in Lafayette theater shooting</t>
-  </si>
-  <si>
-    <t>Pray for Lafayette shooting victims and their families, say Louisiana congressional members</t>
-  </si>
-  <si>
     <t>'That was a horrific scene'</t>
   </si>
   <si>
+    <t>2015-07-24T19:25:00UTC</t>
+  </si>
+  <si>
+    <t>2015-08-05T16:34:11UTC</t>
+  </si>
+  <si>
+    <t>2015-07-24T20:43:00UTC</t>
+  </si>
+  <si>
+    <t>2015-07-30T00:38:21UTC</t>
+  </si>
+  <si>
     <t>2015-07-24T00:00:00UTC</t>
   </si>
   <si>
+    <t>2015-07-24T15:05:26UTC</t>
+  </si>
+  <si>
     <t>2015-08-14T22:28:00UTC</t>
   </si>
   <si>
     <t>2018-04-06T08:20:06UTC</t>
   </si>
   <si>
-    <t>2015-07-24T20:43:00UTC</t>
-  </si>
-  <si>
-    <t>2015-07-24T19:25:00UTC</t>
-  </si>
-  <si>
-    <t>2015-08-05T16:34:11UTC</t>
-  </si>
-  <si>
-    <t>2015-07-30T00:38:21UTC</t>
-  </si>
-  <si>
-    <t>2015-07-24T15:05:26UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -100,31 +100,31 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://abcnews.go.com/US/louisiana-movie-theater-gunman-john-houser-drifter-police/story?id=32660209</t>
+  </si>
+  <si>
+    <t>http://theadvocate.com/news/13048930-123/surveillance-video-released-thursday-shows</t>
+  </si>
+  <si>
+    <t>http://www.nola.com/crime/baton-rouge/index.ssf/2015/07/louisiana_theater_shooter_john.html#incart_story_package</t>
+  </si>
+  <si>
+    <t>http://www.wafb.com/story/29663088/autopsy-results-released-for-shooter-victims-in-lafayette-theater-shooting</t>
+  </si>
+  <si>
     <t>https://www.telegraph.co.uk/news/worldnews/northamerica/usa/11761213/Two-dead-in-cinema-shooting-as-Obama-says-he-was-stymied-on-gun-control.html</t>
   </si>
   <si>
+    <t>http://www.nola.com/politics/index.ssf/2015/07/louisiana_congressional_member_4.html</t>
+  </si>
+  <si>
     <t>http://www.nola.com/crime/index.ssf/2015/08/lafayette_theater_shooting_mor.html</t>
   </si>
   <si>
+    <t>https://www.splcenter.org/hatewatch/2015/07/23/lafayette-theater-shooter-fan-david-duke-neo-nazis-and-antigovernment-conspiracies</t>
+  </si>
+  <si>
     <t>http://www.nydailynews.com/news/national/la-cinema-shooter-not-committed-mental-hospital-judge-article-1.2306183</t>
-  </si>
-  <si>
-    <t>http://www.nola.com/crime/baton-rouge/index.ssf/2015/07/louisiana_theater_shooter_john.html#incart_story_package</t>
-  </si>
-  <si>
-    <t>https://abcnews.go.com/US/louisiana-movie-theater-gunman-john-houser-drifter-police/story?id=32660209</t>
-  </si>
-  <si>
-    <t>http://theadvocate.com/news/13048930-123/surveillance-video-released-thursday-shows</t>
-  </si>
-  <si>
-    <t>https://www.splcenter.org/hatewatch/2015/07/23/lafayette-theater-shooter-fan-david-duke-neo-nazis-and-antigovernment-conspiracies</t>
-  </si>
-  <si>
-    <t>http://www.wafb.com/story/29663088/autopsy-results-released-for-shooter-victims-in-lafayette-theater-shooting</t>
-  </si>
-  <si>
-    <t>http://www.nola.com/politics/index.ssf/2015/07/louisiana_congressional_member_4.html</t>
   </si>
   <si>
     <t>http://www.theadvertiser.com/story/news/2015/07/24/update-shooting-investigation-leads-police-motel/30608859/</t>
@@ -546,7 +546,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -563,10 +563,10 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>988</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -580,10 +580,10 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -614,10 +614,10 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
@@ -628,13 +628,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -645,13 +645,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
@@ -665,10 +665,10 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>988</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>36</v>
@@ -695,8 +695,8 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4" location="incart_story_package"/>
+    <hyperlink ref="E4" r:id="rId3" location="incart_story_package"/>
+    <hyperlink ref="E5" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
     <hyperlink ref="E7" r:id="rId6"/>
     <hyperlink ref="E8" r:id="rId7"/>
